--- a/Debug/brands.xlsx
+++ b/Debug/brands.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{60262E53-75FF-4BAC-A7A1-3A57F9DADE7C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1E193294-8E37-41BA-BF7E-BE4B42F9C3E3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -557,23 +557,23 @@
       </c>
       <c r="B2" s="1">
         <f ca="1">RANDBETWEEN(30, 60)</f>
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2">
         <f ca="1">2.5+RAND()</f>
-        <v>2.8548886958113107</v>
+        <v>2.741643222857773</v>
       </c>
       <c r="D2" s="2">
         <f ca="1">0.5+RAND()*2</f>
-        <v>2.3551322503335124</v>
+        <v>1.2326959863010252</v>
       </c>
       <c r="E2" s="1">
         <f ca="1">RANDBETWEEN(180, 250)</f>
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="F2" s="2">
         <f ca="1">D2*RANDBETWEEN(50,95)/100</f>
-        <v>1.5779386077234534</v>
+        <v>1.0477915883558715</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>17</v>
@@ -600,23 +600,23 @@
       </c>
       <c r="B3" s="1">
         <f t="shared" ref="B3:B6" ca="1" si="0">RANDBETWEEN(30, 60)</f>
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:C6" ca="1" si="1">2.5+RAND()</f>
-        <v>3.1469821708746353</v>
+        <v>3.4895454990725403</v>
       </c>
       <c r="D3" s="2">
         <f t="shared" ref="D3:D6" ca="1" si="2">0.5+RAND()</f>
-        <v>0.84025018414160069</v>
+        <v>0.5946203602044684</v>
       </c>
       <c r="E3" s="1">
         <f t="shared" ref="E3:E6" ca="1" si="3">RANDBETWEEN(180, 250)</f>
-        <v>242</v>
+        <v>186</v>
       </c>
       <c r="F3" s="2">
         <f t="shared" ref="F3:F6" ca="1" si="4">D3*RANDBETWEEN(50,95)/100</f>
-        <v>0.66379764547186459</v>
+        <v>0.46975008456153006</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>18</v>
@@ -643,23 +643,23 @@
       </c>
       <c r="B4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2.9970242319055469</v>
+        <v>3.2313630011075136</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0.89702258722604133</v>
+        <v>1.0087094464541959</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.67276694041953111</v>
+        <v>0.77670627376973089</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>19</v>
@@ -686,23 +686,23 @@
       </c>
       <c r="B5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3.1652240979912287</v>
+        <v>2.8033931454505328</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1.4310346746764975</v>
+        <v>0.73099007672500182</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.93017253853972337</v>
+        <v>0.53362275600925135</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>20</v>
@@ -729,23 +729,23 @@
       </c>
       <c r="B6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3847849425324776</v>
+        <v>3.3784501303178152</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0798969700992986</v>
+        <v>1.0791563566887725</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0.82072169727546695</v>
+        <v>0.99282384815367064</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>21</v>
